--- a/北京运营需求/6-7月核心用户需求0531.xlsx
+++ b/北京运营需求/6-7月核心用户需求0531.xlsx
@@ -5,11 +5,11 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liguangqiao/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liguangqiao/xos/work3/git/github/issue-list/北京运营需求/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17000"/>
+    <workbookView xWindow="3600" yWindow="1360" windowWidth="28800" windowHeight="17000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="388">
   <si>
     <t>开发者</t>
   </si>
@@ -1110,12 +1110,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">1、增量更新不用给自动提示，给一个回调即可，让开发者自行处理。这部分逻辑我们会同步EMM插件的代码，是已经实现的功能。
-2、重启App的功能，只能实现Android，iOS实现很困难。而且据群里的开发者说，APICloud的重启也是只支持Android
-</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>初步计划端午节后的那周完成，6月17日。</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -1222,12 +1216,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">
-（1）“设置启动图路径和时间，下次启动应用才会生效”要下次重启APP才会生效，所以本次先下载好，下次重启APP时调用本地的，也能接受。                                                    （2）如果能实现，每次启动APP时，启动图片直接根据网络地址调用我们设置好的图片，那就完美了。
-</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>用户反馈问题</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -1235,10 +1223,6 @@
     <t>用户反馈： 关于启动图 我反馈个bug
 使用一些用虚拟按键（没有触摸按键）的手机，开机图就会变形。
 比如： Nexus 6</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户发聩：UI计划向哪种风格改进啊？我的APP用户说功能还好用，就是界面看起来太生硬了</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -1299,7 +1283,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1359,6 +1342,81 @@
   </si>
   <si>
     <t>鄢龙涛，刘康立</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+（1）“设置启动图路径和时间，下次启动应用才会生效”要下次重启APP才会生效，所以本次先下载好，下次重启APP时调用本地的，也能接受。                                                    （2）如果能实现，每次启动APP时，启动图片直接根据网络地址调用我们设置好的图片，那就完美了。
+</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1、增量更新不用给自动提示，给一个回调即可，让开发者自行处理。这部分逻辑我们会同步EMM插件的代码，是已经实现的功能。
+2、重启App的功能，只能实现Android，iOS实现很困难。而且据群里的开发者说，APICloud的重启也是只支持Android
+</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户发聩：UI计划向哪种风格改进啊？我的APP用户说功能还好用，就是界面看起来太生硬了</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>未复现</t>
+    <rPh sb="0" eb="1">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>fu'xian</t>
+    </rPh>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发者可以通过JS实现。</t>
+    <rPh sb="0" eb="1">
+      <t>kai'fa'zhe</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>k'y</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>tong'guo</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>shi'xian</t>
+    </rPh>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>界面UI开发者自己实现。</t>
+    <rPh sb="0" eb="1">
+      <t>jie'mian</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>kai'fa'zhe</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>z'j</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>shi'xan</t>
+    </rPh>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>等待确认研发</t>
+    <rPh sb="0" eb="1">
+      <t>deng'dai</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>que'ren</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>yan'fa</t>
+    </rPh>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -1789,6 +1847,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1806,15 +1873,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2192,8 +2250,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -2216,10 +2274,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="24" t="s">
+        <v>363</v>
+      </c>
+      <c r="D1" s="25" t="s">
         <v>364</v>
-      </c>
-      <c r="D1" s="25" t="s">
-        <v>366</v>
       </c>
       <c r="E1" s="25" t="s">
         <v>338</v>
@@ -2235,118 +2293,122 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="63" t="s">
+      <c r="A2" s="66" t="s">
         <v>335</v>
       </c>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
     </row>
     <row r="3" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="25" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B3" s="24">
         <v>1</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>359</v>
-      </c>
-      <c r="D3" s="54" t="s">
-        <v>368</v>
+        <v>358</v>
+      </c>
+      <c r="D3" s="57" t="s">
+        <v>382</v>
       </c>
       <c r="E3" s="25"/>
       <c r="F3" s="42" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G3" s="24"/>
-      <c r="H3" s="27"/>
+      <c r="H3" s="27" t="s">
+        <v>386</v>
+      </c>
     </row>
     <row r="4" spans="1:8" ht="100.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="25" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B4" s="24">
         <v>2</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>359</v>
-      </c>
-      <c r="D4" s="54" t="s">
-        <v>365</v>
+        <v>358</v>
+      </c>
+      <c r="D4" s="57" t="s">
+        <v>380</v>
       </c>
       <c r="E4" s="25" t="s">
+        <v>339</v>
+      </c>
+      <c r="F4" s="57" t="s">
+        <v>381</v>
+      </c>
+      <c r="G4" s="24" t="s">
         <v>340</v>
-      </c>
-      <c r="F4" s="54" t="s">
-        <v>339</v>
-      </c>
-      <c r="G4" s="24" t="s">
-        <v>341</v>
       </c>
       <c r="H4" s="27"/>
     </row>
     <row r="5" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="48" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B5" s="24">
         <v>3</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D5" s="57" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="E5" s="25">
         <v>7.15</v>
       </c>
       <c r="F5" s="25" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="G5" s="24" t="s">
-        <v>342</v>
-      </c>
-      <c r="H5" s="27"/>
+        <v>341</v>
+      </c>
+      <c r="H5" s="27" t="s">
+        <v>387</v>
+      </c>
     </row>
     <row r="6" spans="1:8" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="48" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B6" s="24">
         <v>4</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D6" s="26" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E6" s="25">
         <v>7.15</v>
       </c>
       <c r="F6" s="24"/>
       <c r="G6" s="56" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="H6" s="27" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="46" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B7" s="44">
         <v>5</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D7" s="46" t="s">
         <v>332</v>
@@ -2354,33 +2416,35 @@
       <c r="E7" s="46"/>
       <c r="F7" s="44"/>
       <c r="G7" s="44" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H7" s="44" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="46" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B8" s="24">
         <v>6</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>360</v>
-      </c>
-      <c r="D8" s="67" t="s">
-        <v>367</v>
+        <v>359</v>
+      </c>
+      <c r="D8" s="61" t="s">
+        <v>365</v>
       </c>
       <c r="E8" s="25">
         <v>7.15</v>
       </c>
       <c r="F8" s="24"/>
       <c r="G8" s="56" t="s">
-        <v>370</v>
-      </c>
-      <c r="H8" s="27"/>
+        <v>367</v>
+      </c>
+      <c r="H8" s="27" t="s">
+        <v>383</v>
+      </c>
     </row>
     <row r="9" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="46" t="s">
@@ -2390,145 +2454,151 @@
         <v>7</v>
       </c>
       <c r="C9" s="44" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D9" s="45" t="s">
         <v>333</v>
       </c>
       <c r="E9" s="46" t="s">
+        <v>352</v>
+      </c>
+      <c r="F9" s="46" t="s">
         <v>353</v>
-      </c>
-      <c r="F9" s="46" t="s">
-        <v>354</v>
       </c>
       <c r="G9" s="24"/>
       <c r="H9" s="52" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="113.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="25" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B10" s="24">
         <v>8</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>359</v>
-      </c>
-      <c r="D10" s="68" t="s">
-        <v>376</v>
+        <v>358</v>
+      </c>
+      <c r="D10" s="62" t="s">
+        <v>373</v>
       </c>
       <c r="E10" s="25">
         <v>7.22</v>
       </c>
       <c r="F10" s="54" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G10" s="56" t="s">
-        <v>371</v>
-      </c>
-      <c r="H10" s="27"/>
+        <v>368</v>
+      </c>
+      <c r="H10" s="27" t="s">
+        <v>372</v>
+      </c>
     </row>
     <row r="11" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="25" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B11" s="19">
         <v>9</v>
       </c>
       <c r="C11" s="51" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D11" s="58" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="E11" s="20">
         <v>7.15</v>
       </c>
       <c r="F11" s="40" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G11" s="19" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="H11" s="21" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="25" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B12" s="19">
         <v>10</v>
       </c>
       <c r="C12" s="51" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D12" s="59" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="E12" s="20">
         <v>7.22</v>
       </c>
       <c r="F12" s="47" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G12" s="55" t="s">
-        <v>371</v>
-      </c>
-      <c r="H12" s="21"/>
+        <v>368</v>
+      </c>
+      <c r="H12" s="21" t="s">
+        <v>384</v>
+      </c>
     </row>
     <row r="13" spans="1:8" ht="62.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="25" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B13" s="41">
         <v>11</v>
       </c>
       <c r="C13" s="51" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D13" s="60" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E13" s="20">
         <v>7.22</v>
       </c>
       <c r="F13" s="57" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="G13" s="41" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="H13" s="21" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="132" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="25" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B14" s="41">
         <v>12</v>
       </c>
       <c r="C14" s="51" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D14" s="60" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="E14" s="20">
         <v>7.22</v>
       </c>
       <c r="F14" s="54" t="s">
-        <v>355</v>
-      </c>
-      <c r="G14" s="69" t="s">
-        <v>382</v>
-      </c>
-      <c r="H14" s="21"/>
+        <v>354</v>
+      </c>
+      <c r="G14" s="63" t="s">
+        <v>379</v>
+      </c>
+      <c r="H14" s="21" t="s">
+        <v>385</v>
+      </c>
     </row>
     <row r="15" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="25"/>
@@ -2536,10 +2606,10 @@
         <v>13</v>
       </c>
       <c r="C15" s="53" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D15" s="50" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E15" s="20"/>
       <c r="F15" s="25"/>
@@ -2547,19 +2617,19 @@
       <c r="H15" s="21"/>
     </row>
     <row r="16" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="62" t="s">
+      <c r="A16" s="65" t="s">
         <v>336</v>
       </c>
-      <c r="B16" s="62"/>
-      <c r="C16" s="62"/>
-      <c r="D16" s="62"/>
-      <c r="E16" s="62"/>
-      <c r="F16" s="62"/>
-      <c r="G16" s="62"/>
-      <c r="H16" s="62"/>
+      <c r="B16" s="65"/>
+      <c r="C16" s="65"/>
+      <c r="D16" s="65"/>
+      <c r="E16" s="65"/>
+      <c r="F16" s="65"/>
+      <c r="G16" s="65"/>
+      <c r="H16" s="65"/>
     </row>
     <row r="17" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="61" t="s">
+      <c r="A17" s="64" t="s">
         <v>5</v>
       </c>
       <c r="B17" s="28">
@@ -2581,7 +2651,7 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="61"/>
+      <c r="A18" s="64"/>
       <c r="B18" s="28">
         <v>2</v>
       </c>
@@ -2601,7 +2671,7 @@
       </c>
     </row>
     <row r="19" spans="1:8" ht="28" x14ac:dyDescent="0.15">
-      <c r="A19" s="61"/>
+      <c r="A19" s="64"/>
       <c r="B19" s="28">
         <v>3</v>
       </c>
@@ -2621,7 +2691,7 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A20" s="61"/>
+      <c r="A20" s="64"/>
       <c r="B20" s="28">
         <v>4</v>
       </c>
@@ -2641,7 +2711,7 @@
       </c>
     </row>
     <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="61"/>
+      <c r="A21" s="64"/>
       <c r="B21" s="28">
         <v>5</v>
       </c>
@@ -2661,7 +2731,7 @@
       </c>
     </row>
     <row r="22" spans="1:8" ht="42" x14ac:dyDescent="0.15">
-      <c r="A22" s="61"/>
+      <c r="A22" s="64"/>
       <c r="B22" s="28">
         <v>6</v>
       </c>
@@ -4178,7 +4248,7 @@
       <c r="A50" s="1">
         <v>61</v>
       </c>
-      <c r="B50" s="65" t="s">
+      <c r="B50" s="68" t="s">
         <v>158</v>
       </c>
       <c r="C50" s="2" t="s">
@@ -4200,7 +4270,7 @@
       <c r="A51" s="1">
         <v>62</v>
       </c>
-      <c r="B51" s="65"/>
+      <c r="B51" s="68"/>
       <c r="C51" s="2" t="s">
         <v>161</v>
       </c>
@@ -4220,7 +4290,7 @@
       <c r="A52" s="1">
         <v>63</v>
       </c>
-      <c r="B52" s="65"/>
+      <c r="B52" s="68"/>
       <c r="C52" s="2" t="s">
         <v>163</v>
       </c>
@@ -4240,7 +4310,7 @@
       <c r="A53" s="1">
         <v>64</v>
       </c>
-      <c r="B53" s="65"/>
+      <c r="B53" s="68"/>
       <c r="C53" s="2" t="s">
         <v>165</v>
       </c>
@@ -4260,7 +4330,7 @@
       <c r="A54" s="1">
         <v>65</v>
       </c>
-      <c r="B54" s="65"/>
+      <c r="B54" s="68"/>
       <c r="C54" s="2" t="s">
         <v>167</v>
       </c>
@@ -4280,7 +4350,7 @@
       <c r="A55" s="1">
         <v>66</v>
       </c>
-      <c r="B55" s="65"/>
+      <c r="B55" s="68"/>
       <c r="C55" s="2" t="s">
         <v>169</v>
       </c>
@@ -4300,7 +4370,7 @@
       <c r="A56" s="1">
         <v>67</v>
       </c>
-      <c r="B56" s="65"/>
+      <c r="B56" s="68"/>
       <c r="C56" s="2" t="s">
         <v>171</v>
       </c>
@@ -4320,7 +4390,7 @@
       <c r="A57" s="1">
         <v>68</v>
       </c>
-      <c r="B57" s="65"/>
+      <c r="B57" s="68"/>
       <c r="C57" s="2" t="s">
         <v>173</v>
       </c>
@@ -4340,7 +4410,7 @@
       <c r="A58" s="1">
         <v>69</v>
       </c>
-      <c r="B58" s="65"/>
+      <c r="B58" s="68"/>
       <c r="C58" s="2" t="s">
         <v>175</v>
       </c>
@@ -4360,7 +4430,7 @@
       <c r="A59" s="1">
         <v>70</v>
       </c>
-      <c r="B59" s="65"/>
+      <c r="B59" s="68"/>
       <c r="C59" s="2" t="s">
         <v>177</v>
       </c>
@@ -4380,7 +4450,7 @@
       <c r="A60" s="1">
         <v>71</v>
       </c>
-      <c r="B60" s="65"/>
+      <c r="B60" s="68"/>
       <c r="C60" s="2" t="s">
         <v>179</v>
       </c>
@@ -4400,7 +4470,7 @@
       <c r="A61" s="1">
         <v>72</v>
       </c>
-      <c r="B61" s="65"/>
+      <c r="B61" s="68"/>
       <c r="C61" s="2" t="s">
         <v>181</v>
       </c>
@@ -4420,7 +4490,7 @@
       <c r="A62" s="1">
         <v>73</v>
       </c>
-      <c r="B62" s="65"/>
+      <c r="B62" s="68"/>
       <c r="C62" s="2" t="s">
         <v>183</v>
       </c>
@@ -4440,7 +4510,7 @@
       <c r="A63" s="1">
         <v>74</v>
       </c>
-      <c r="B63" s="65"/>
+      <c r="B63" s="68"/>
       <c r="C63" s="2" t="s">
         <v>185</v>
       </c>
@@ -4460,7 +4530,7 @@
       <c r="A64" s="1">
         <v>75</v>
       </c>
-      <c r="B64" s="65"/>
+      <c r="B64" s="68"/>
       <c r="C64" s="2" t="s">
         <v>187</v>
       </c>
@@ -4480,7 +4550,7 @@
       <c r="A65" s="1">
         <v>76</v>
       </c>
-      <c r="B65" s="65"/>
+      <c r="B65" s="68"/>
       <c r="C65" s="2" t="s">
         <v>189</v>
       </c>
@@ -4500,7 +4570,7 @@
       <c r="A66" s="1">
         <v>77</v>
       </c>
-      <c r="B66" s="65"/>
+      <c r="B66" s="68"/>
       <c r="C66" s="2" t="s">
         <v>191</v>
       </c>
@@ -4520,7 +4590,7 @@
       <c r="A67" s="1">
         <v>78</v>
       </c>
-      <c r="B67" s="65" t="s">
+      <c r="B67" s="68" t="s">
         <v>193</v>
       </c>
       <c r="C67" s="16" t="s">
@@ -4542,7 +4612,7 @@
       <c r="A68" s="1">
         <v>79</v>
       </c>
-      <c r="B68" s="65"/>
+      <c r="B68" s="68"/>
       <c r="C68" s="2" t="s">
         <v>196</v>
       </c>
@@ -4562,7 +4632,7 @@
       <c r="A69" s="1">
         <v>80</v>
       </c>
-      <c r="B69" s="65"/>
+      <c r="B69" s="68"/>
       <c r="C69" s="2" t="s">
         <v>198</v>
       </c>
@@ -4582,7 +4652,7 @@
       <c r="A70" s="1">
         <v>82</v>
       </c>
-      <c r="B70" s="65"/>
+      <c r="B70" s="68"/>
       <c r="C70" s="2" t="s">
         <v>200</v>
       </c>
@@ -4602,7 +4672,7 @@
       <c r="A71" s="1">
         <v>83</v>
       </c>
-      <c r="B71" s="65"/>
+      <c r="B71" s="68"/>
       <c r="C71" s="2" t="s">
         <v>202</v>
       </c>
@@ -4624,7 +4694,7 @@
       <c r="A72" s="1">
         <v>84</v>
       </c>
-      <c r="B72" s="65"/>
+      <c r="B72" s="68"/>
       <c r="C72" s="2" t="s">
         <v>204</v>
       </c>
@@ -4644,7 +4714,7 @@
       <c r="A73" s="1">
         <v>85</v>
       </c>
-      <c r="B73" s="65"/>
+      <c r="B73" s="68"/>
       <c r="C73" s="2" t="s">
         <v>206</v>
       </c>
@@ -4664,7 +4734,7 @@
       <c r="A74" s="1">
         <v>86</v>
       </c>
-      <c r="B74" s="65"/>
+      <c r="B74" s="68"/>
       <c r="C74" s="2" t="s">
         <v>208</v>
       </c>
@@ -4684,7 +4754,7 @@
       <c r="A75" s="1">
         <v>87</v>
       </c>
-      <c r="B75" s="65"/>
+      <c r="B75" s="68"/>
       <c r="C75" s="2" t="s">
         <v>210</v>
       </c>
@@ -4704,7 +4774,7 @@
       <c r="A76" s="1">
         <v>88</v>
       </c>
-      <c r="B76" s="65"/>
+      <c r="B76" s="68"/>
       <c r="C76" s="2" t="s">
         <v>212</v>
       </c>
@@ -4724,7 +4794,7 @@
       <c r="A77" s="1">
         <v>89</v>
       </c>
-      <c r="B77" s="65"/>
+      <c r="B77" s="68"/>
       <c r="C77" s="16" t="s">
         <v>214</v>
       </c>
@@ -4744,7 +4814,7 @@
       <c r="A78" s="1">
         <v>90</v>
       </c>
-      <c r="B78" s="65"/>
+      <c r="B78" s="68"/>
       <c r="C78" s="2" t="s">
         <v>216</v>
       </c>
@@ -4766,7 +4836,7 @@
       <c r="A79" s="1">
         <v>91</v>
       </c>
-      <c r="B79" s="65"/>
+      <c r="B79" s="68"/>
       <c r="C79" s="2" t="s">
         <v>218</v>
       </c>
@@ -4786,7 +4856,7 @@
       <c r="A80" s="1">
         <v>92</v>
       </c>
-      <c r="B80" s="65"/>
+      <c r="B80" s="68"/>
       <c r="C80" s="2" t="s">
         <v>220</v>
       </c>
@@ -4808,7 +4878,7 @@
       <c r="A81" s="1">
         <v>93</v>
       </c>
-      <c r="B81" s="65"/>
+      <c r="B81" s="68"/>
       <c r="C81" s="2" t="s">
         <v>222</v>
       </c>
@@ -4828,7 +4898,7 @@
       <c r="A82" s="1">
         <v>94</v>
       </c>
-      <c r="B82" s="65"/>
+      <c r="B82" s="68"/>
       <c r="C82" s="2" t="s">
         <v>224</v>
       </c>
@@ -4850,7 +4920,7 @@
       <c r="A83" s="1">
         <v>95</v>
       </c>
-      <c r="B83" s="65"/>
+      <c r="B83" s="68"/>
       <c r="C83" s="2" t="s">
         <v>226</v>
       </c>
@@ -4870,7 +4940,7 @@
       <c r="A84" s="1">
         <v>96</v>
       </c>
-      <c r="B84" s="65"/>
+      <c r="B84" s="68"/>
       <c r="C84" s="2" t="s">
         <v>228</v>
       </c>
@@ -4892,7 +4962,7 @@
       <c r="A85" s="1">
         <v>97</v>
       </c>
-      <c r="B85" s="65"/>
+      <c r="B85" s="68"/>
       <c r="C85" s="2" t="s">
         <v>230</v>
       </c>
@@ -4912,7 +4982,7 @@
       <c r="A86" s="1">
         <v>98</v>
       </c>
-      <c r="B86" s="65"/>
+      <c r="B86" s="68"/>
       <c r="C86" s="2" t="s">
         <v>232</v>
       </c>
@@ -4934,7 +5004,7 @@
       <c r="A87" s="1">
         <v>99</v>
       </c>
-      <c r="B87" s="65"/>
+      <c r="B87" s="68"/>
       <c r="C87" s="2" t="s">
         <v>234</v>
       </c>
@@ -4954,7 +5024,7 @@
       <c r="A88" s="1">
         <v>100</v>
       </c>
-      <c r="B88" s="65"/>
+      <c r="B88" s="68"/>
       <c r="C88" s="2" t="s">
         <v>236</v>
       </c>
@@ -4974,7 +5044,7 @@
       <c r="A89" s="1">
         <v>101</v>
       </c>
-      <c r="B89" s="65"/>
+      <c r="B89" s="68"/>
       <c r="C89" s="2" t="s">
         <v>238</v>
       </c>
@@ -4994,7 +5064,7 @@
       <c r="A90" s="1">
         <v>102</v>
       </c>
-      <c r="B90" s="65"/>
+      <c r="B90" s="68"/>
       <c r="C90" s="2" t="s">
         <v>240</v>
       </c>
@@ -5014,7 +5084,7 @@
       <c r="A91" s="1">
         <v>103</v>
       </c>
-      <c r="B91" s="65"/>
+      <c r="B91" s="68"/>
       <c r="C91" s="2" t="s">
         <v>242</v>
       </c>
@@ -5036,7 +5106,7 @@
       <c r="A92" s="1">
         <v>104</v>
       </c>
-      <c r="B92" s="65"/>
+      <c r="B92" s="68"/>
       <c r="C92" s="2" t="s">
         <v>244</v>
       </c>
@@ -5056,7 +5126,7 @@
       <c r="A93" s="1">
         <v>105</v>
       </c>
-      <c r="B93" s="65"/>
+      <c r="B93" s="68"/>
       <c r="C93" s="2" t="s">
         <v>246</v>
       </c>
@@ -5076,7 +5146,7 @@
       <c r="A94" s="1">
         <v>106</v>
       </c>
-      <c r="B94" s="65"/>
+      <c r="B94" s="68"/>
       <c r="C94" s="2" t="s">
         <v>248</v>
       </c>
@@ -5096,7 +5166,7 @@
       <c r="A95" s="1">
         <v>107</v>
       </c>
-      <c r="B95" s="65"/>
+      <c r="B95" s="68"/>
       <c r="C95" s="2" t="s">
         <v>250</v>
       </c>
@@ -5116,7 +5186,7 @@
       <c r="A96" s="1">
         <v>108</v>
       </c>
-      <c r="B96" s="65"/>
+      <c r="B96" s="68"/>
       <c r="C96" s="2" t="s">
         <v>252</v>
       </c>
@@ -5138,7 +5208,7 @@
       <c r="A97" s="1">
         <v>109</v>
       </c>
-      <c r="B97" s="65"/>
+      <c r="B97" s="68"/>
       <c r="C97" s="2" t="s">
         <v>254</v>
       </c>
@@ -5158,7 +5228,7 @@
       <c r="A98" s="1">
         <v>110</v>
       </c>
-      <c r="B98" s="65"/>
+      <c r="B98" s="68"/>
       <c r="C98" s="2" t="s">
         <v>256</v>
       </c>
@@ -5180,7 +5250,7 @@
       <c r="A99" s="1">
         <v>111</v>
       </c>
-      <c r="B99" s="65"/>
+      <c r="B99" s="68"/>
       <c r="C99" s="2" t="s">
         <v>258</v>
       </c>
@@ -5200,7 +5270,7 @@
       <c r="A100" s="1">
         <v>112</v>
       </c>
-      <c r="B100" s="65"/>
+      <c r="B100" s="68"/>
       <c r="C100" s="2" t="s">
         <v>260</v>
       </c>
@@ -5220,7 +5290,7 @@
       <c r="A101" s="1">
         <v>113</v>
       </c>
-      <c r="B101" s="65"/>
+      <c r="B101" s="68"/>
       <c r="C101" s="2" t="s">
         <v>262</v>
       </c>
@@ -5240,7 +5310,7 @@
       <c r="A102" s="1">
         <v>114</v>
       </c>
-      <c r="B102" s="65"/>
+      <c r="B102" s="68"/>
       <c r="C102" s="2" t="s">
         <v>214</v>
       </c>
@@ -5260,7 +5330,7 @@
       <c r="A103" s="1">
         <v>115</v>
       </c>
-      <c r="B103" s="65"/>
+      <c r="B103" s="68"/>
       <c r="C103" s="2" t="s">
         <v>265</v>
       </c>
@@ -5280,7 +5350,7 @@
       <c r="A104" s="1">
         <v>116</v>
       </c>
-      <c r="B104" s="65"/>
+      <c r="B104" s="68"/>
       <c r="C104" s="2" t="s">
         <v>267</v>
       </c>
@@ -5302,7 +5372,7 @@
       <c r="A105" s="1">
         <v>117</v>
       </c>
-      <c r="B105" s="65"/>
+      <c r="B105" s="68"/>
       <c r="C105" s="2" t="s">
         <v>269</v>
       </c>
@@ -5322,7 +5392,7 @@
       <c r="A106" s="1">
         <v>118</v>
       </c>
-      <c r="B106" s="65"/>
+      <c r="B106" s="68"/>
       <c r="C106" s="2" t="s">
         <v>271</v>
       </c>
@@ -5342,7 +5412,7 @@
       <c r="A107" s="1">
         <v>119</v>
       </c>
-      <c r="B107" s="65"/>
+      <c r="B107" s="68"/>
       <c r="C107" s="2" t="s">
         <v>273</v>
       </c>
@@ -5362,7 +5432,7 @@
       <c r="A108" s="1">
         <v>120</v>
       </c>
-      <c r="B108" s="65"/>
+      <c r="B108" s="68"/>
       <c r="C108" s="2" t="s">
         <v>275</v>
       </c>
@@ -5382,7 +5452,7 @@
       <c r="A109" s="1">
         <v>121</v>
       </c>
-      <c r="B109" s="65"/>
+      <c r="B109" s="68"/>
       <c r="C109" s="2" t="s">
         <v>277</v>
       </c>
@@ -5404,7 +5474,7 @@
       <c r="A110" s="1">
         <v>122</v>
       </c>
-      <c r="B110" s="65"/>
+      <c r="B110" s="68"/>
       <c r="C110" s="2" t="s">
         <v>279</v>
       </c>
@@ -5426,7 +5496,7 @@
       <c r="A111" s="1">
         <v>123</v>
       </c>
-      <c r="B111" s="65"/>
+      <c r="B111" s="68"/>
       <c r="C111" s="2" t="s">
         <v>281</v>
       </c>
@@ -5448,7 +5518,7 @@
       <c r="A112" s="1">
         <v>124</v>
       </c>
-      <c r="B112" s="65"/>
+      <c r="B112" s="68"/>
       <c r="C112" s="2" t="s">
         <v>283</v>
       </c>
@@ -5470,7 +5540,7 @@
       <c r="A113" s="1">
         <v>125</v>
       </c>
-      <c r="B113" s="65"/>
+      <c r="B113" s="68"/>
       <c r="C113" s="2" t="s">
         <v>285</v>
       </c>
@@ -5490,7 +5560,7 @@
       <c r="A114" s="1">
         <v>126</v>
       </c>
-      <c r="B114" s="65"/>
+      <c r="B114" s="68"/>
       <c r="C114" s="2" t="s">
         <v>287</v>
       </c>
@@ -5512,7 +5582,7 @@
       <c r="A115" s="1">
         <v>127</v>
       </c>
-      <c r="B115" s="65"/>
+      <c r="B115" s="68"/>
       <c r="C115" s="2" t="s">
         <v>289</v>
       </c>
@@ -5534,7 +5604,7 @@
       <c r="A116" s="1">
         <v>128</v>
       </c>
-      <c r="B116" s="65"/>
+      <c r="B116" s="68"/>
       <c r="C116" s="2" t="s">
         <v>291</v>
       </c>
@@ -5554,7 +5624,7 @@
       <c r="A117" s="1">
         <v>129</v>
       </c>
-      <c r="B117" s="65"/>
+      <c r="B117" s="68"/>
       <c r="C117" s="2" t="s">
         <v>293</v>
       </c>
@@ -5574,7 +5644,7 @@
       <c r="A118" s="1">
         <v>130</v>
       </c>
-      <c r="B118" s="65"/>
+      <c r="B118" s="68"/>
       <c r="C118" s="2" t="s">
         <v>295</v>
       </c>
@@ -5594,7 +5664,7 @@
       <c r="A119" s="1">
         <v>131</v>
       </c>
-      <c r="B119" s="65"/>
+      <c r="B119" s="68"/>
       <c r="C119" s="2" t="s">
         <v>297</v>
       </c>
@@ -5614,7 +5684,7 @@
       <c r="A120" s="1">
         <v>132</v>
       </c>
-      <c r="B120" s="65"/>
+      <c r="B120" s="68"/>
       <c r="C120" s="2" t="s">
         <v>299</v>
       </c>
@@ -5636,7 +5706,7 @@
       <c r="A121" s="1">
         <v>133</v>
       </c>
-      <c r="B121" s="65"/>
+      <c r="B121" s="68"/>
       <c r="C121" s="2" t="s">
         <v>301</v>
       </c>
@@ -5656,7 +5726,7 @@
       <c r="A122" s="1">
         <v>134</v>
       </c>
-      <c r="B122" s="65"/>
+      <c r="B122" s="68"/>
       <c r="C122" s="2" t="s">
         <v>303</v>
       </c>
@@ -5676,7 +5746,7 @@
       <c r="A123" s="1">
         <v>135</v>
       </c>
-      <c r="B123" s="65"/>
+      <c r="B123" s="68"/>
       <c r="C123" s="2"/>
       <c r="D123" s="1"/>
       <c r="E123" s="2"/>
@@ -5688,7 +5758,7 @@
       <c r="A124" s="1">
         <v>136</v>
       </c>
-      <c r="B124" s="65"/>
+      <c r="B124" s="68"/>
       <c r="C124" s="2"/>
       <c r="D124" s="1"/>
       <c r="E124" s="2"/>
@@ -5700,7 +5770,7 @@
       <c r="A125" s="1">
         <v>137</v>
       </c>
-      <c r="B125" s="65"/>
+      <c r="B125" s="68"/>
       <c r="C125" s="2"/>
       <c r="D125" s="1"/>
       <c r="E125" s="2"/>
@@ -5712,7 +5782,7 @@
       <c r="A126" s="1">
         <v>138</v>
       </c>
-      <c r="B126" s="65"/>
+      <c r="B126" s="68"/>
       <c r="C126" s="2"/>
       <c r="D126" s="1"/>
       <c r="E126" s="2"/>
@@ -5724,7 +5794,7 @@
       <c r="A127" s="1">
         <v>139</v>
       </c>
-      <c r="B127" s="65"/>
+      <c r="B127" s="68"/>
       <c r="C127" s="2"/>
       <c r="D127" s="1"/>
       <c r="E127" s="2"/>
@@ -5736,7 +5806,7 @@
       <c r="A128" s="1">
         <v>140</v>
       </c>
-      <c r="B128" s="65"/>
+      <c r="B128" s="68"/>
       <c r="C128" s="2"/>
       <c r="D128" s="1"/>
       <c r="E128" s="2"/>
@@ -5748,7 +5818,7 @@
       <c r="A129" s="1">
         <v>141</v>
       </c>
-      <c r="B129" s="65"/>
+      <c r="B129" s="68"/>
       <c r="C129" s="2"/>
       <c r="D129" s="1"/>
       <c r="E129" s="2"/>
@@ -5760,7 +5830,7 @@
       <c r="A130" s="1">
         <v>142</v>
       </c>
-      <c r="B130" s="65"/>
+      <c r="B130" s="68"/>
       <c r="C130" s="2"/>
       <c r="D130" s="1"/>
       <c r="E130" s="2"/>
@@ -5772,7 +5842,7 @@
       <c r="A131" s="1">
         <v>143</v>
       </c>
-      <c r="B131" s="65"/>
+      <c r="B131" s="68"/>
       <c r="C131" s="2"/>
       <c r="D131" s="1"/>
       <c r="E131" s="2"/>
@@ -5784,7 +5854,7 @@
       <c r="A132" s="1">
         <v>144</v>
       </c>
-      <c r="B132" s="65"/>
+      <c r="B132" s="68"/>
       <c r="C132" s="2"/>
       <c r="D132" s="1"/>
       <c r="E132" s="2"/>
@@ -5796,7 +5866,7 @@
       <c r="A133" s="1">
         <v>145</v>
       </c>
-      <c r="B133" s="65"/>
+      <c r="B133" s="68"/>
       <c r="C133" s="2"/>
       <c r="D133" s="1"/>
       <c r="E133" s="2"/>
@@ -5808,7 +5878,7 @@
       <c r="A134" s="1">
         <v>146</v>
       </c>
-      <c r="B134" s="65"/>
+      <c r="B134" s="68"/>
       <c r="C134" s="2"/>
       <c r="D134" s="1"/>
       <c r="E134" s="2"/>
@@ -5820,7 +5890,7 @@
       <c r="A135" s="1">
         <v>147</v>
       </c>
-      <c r="B135" s="65"/>
+      <c r="B135" s="68"/>
       <c r="C135" s="2"/>
       <c r="D135" s="1"/>
       <c r="E135" s="2"/>
@@ -5832,7 +5902,7 @@
       <c r="A136" s="1">
         <v>148</v>
       </c>
-      <c r="B136" s="65"/>
+      <c r="B136" s="68"/>
       <c r="C136" s="2"/>
       <c r="D136" s="1"/>
       <c r="E136" s="2"/>
@@ -5844,7 +5914,7 @@
       <c r="A137" s="1">
         <v>149</v>
       </c>
-      <c r="B137" s="65"/>
+      <c r="B137" s="68"/>
       <c r="C137" s="2"/>
       <c r="D137" s="1"/>
       <c r="E137" s="2"/>
@@ -5856,7 +5926,7 @@
       <c r="A138" s="1">
         <v>150</v>
       </c>
-      <c r="B138" s="65"/>
+      <c r="B138" s="68"/>
       <c r="C138" s="2"/>
       <c r="D138" s="1"/>
       <c r="E138" s="2"/>
@@ -5868,7 +5938,7 @@
       <c r="A139" s="1">
         <v>151</v>
       </c>
-      <c r="B139" s="65"/>
+      <c r="B139" s="68"/>
       <c r="C139" s="2"/>
       <c r="D139" s="1"/>
       <c r="E139" s="2"/>
@@ -5880,7 +5950,7 @@
       <c r="A140" s="1">
         <v>152</v>
       </c>
-      <c r="B140" s="65"/>
+      <c r="B140" s="68"/>
       <c r="C140" s="2"/>
       <c r="D140" s="1"/>
       <c r="E140" s="2"/>
@@ -5892,7 +5962,7 @@
       <c r="A141" s="1">
         <v>153</v>
       </c>
-      <c r="B141" s="65"/>
+      <c r="B141" s="68"/>
       <c r="C141" s="2"/>
       <c r="D141" s="1"/>
       <c r="E141" s="2"/>
@@ -5904,7 +5974,7 @@
       <c r="A142" s="1">
         <v>154</v>
       </c>
-      <c r="B142" s="65"/>
+      <c r="B142" s="68"/>
       <c r="C142" s="2"/>
       <c r="D142" s="1"/>
       <c r="E142" s="2"/>
@@ -5916,7 +5986,7 @@
       <c r="A143" s="1">
         <v>155</v>
       </c>
-      <c r="B143" s="65"/>
+      <c r="B143" s="68"/>
       <c r="C143" s="2"/>
       <c r="D143" s="1"/>
       <c r="E143" s="2"/>
@@ -5928,7 +5998,7 @@
       <c r="A144" s="1">
         <v>156</v>
       </c>
-      <c r="B144" s="65"/>
+      <c r="B144" s="68"/>
       <c r="C144" s="2"/>
       <c r="D144" s="1"/>
       <c r="E144" s="2"/>
@@ -5940,7 +6010,7 @@
       <c r="A145" s="1">
         <v>157</v>
       </c>
-      <c r="B145" s="65"/>
+      <c r="B145" s="68"/>
       <c r="C145" s="2"/>
       <c r="D145" s="1"/>
       <c r="E145" s="2"/>
@@ -5952,7 +6022,7 @@
       <c r="A146" s="1">
         <v>158</v>
       </c>
-      <c r="B146" s="65"/>
+      <c r="B146" s="68"/>
       <c r="C146" s="2"/>
       <c r="D146" s="1"/>
       <c r="E146" s="2"/>
@@ -5964,7 +6034,7 @@
       <c r="A147" s="1">
         <v>159</v>
       </c>
-      <c r="B147" s="65"/>
+      <c r="B147" s="68"/>
       <c r="C147" s="2"/>
       <c r="D147" s="1"/>
       <c r="E147" s="2"/>
@@ -5976,7 +6046,7 @@
       <c r="A148" s="1">
         <v>160</v>
       </c>
-      <c r="B148" s="65"/>
+      <c r="B148" s="68"/>
       <c r="C148" s="2"/>
       <c r="D148" s="1"/>
       <c r="E148" s="2"/>
@@ -5988,7 +6058,7 @@
       <c r="A149" s="1">
         <v>161</v>
       </c>
-      <c r="B149" s="65"/>
+      <c r="B149" s="68"/>
       <c r="C149" s="2"/>
       <c r="D149" s="1"/>
       <c r="E149" s="2"/>
@@ -6000,7 +6070,7 @@
       <c r="A150" s="1">
         <v>162</v>
       </c>
-      <c r="B150" s="65"/>
+      <c r="B150" s="68"/>
       <c r="C150" s="2"/>
       <c r="D150" s="1"/>
       <c r="E150" s="2"/>
@@ -6012,7 +6082,7 @@
       <c r="A151" s="1">
         <v>163</v>
       </c>
-      <c r="B151" s="65"/>
+      <c r="B151" s="68"/>
       <c r="C151" s="2"/>
       <c r="D151" s="1"/>
       <c r="E151" s="2"/>
@@ -6024,7 +6094,7 @@
       <c r="A152" s="1">
         <v>164</v>
       </c>
-      <c r="B152" s="65"/>
+      <c r="B152" s="68"/>
       <c r="C152" s="2"/>
       <c r="D152" s="1"/>
       <c r="E152" s="2"/>
@@ -6036,7 +6106,7 @@
       <c r="A153" s="1">
         <v>165</v>
       </c>
-      <c r="B153" s="65"/>
+      <c r="B153" s="68"/>
       <c r="C153" s="2"/>
       <c r="D153" s="1"/>
       <c r="E153" s="2"/>
@@ -6048,7 +6118,7 @@
       <c r="A154" s="1">
         <v>166</v>
       </c>
-      <c r="B154" s="65"/>
+      <c r="B154" s="68"/>
       <c r="C154" s="2"/>
       <c r="D154" s="1"/>
       <c r="E154" s="2"/>
@@ -6060,7 +6130,7 @@
       <c r="A155" s="1">
         <v>167</v>
       </c>
-      <c r="B155" s="65"/>
+      <c r="B155" s="68"/>
       <c r="C155" s="2"/>
       <c r="D155" s="1"/>
       <c r="E155" s="2"/>
@@ -6072,7 +6142,7 @@
       <c r="A156" s="1">
         <v>168</v>
       </c>
-      <c r="B156" s="65"/>
+      <c r="B156" s="68"/>
       <c r="C156" s="2"/>
       <c r="D156" s="1"/>
       <c r="E156" s="2"/>
@@ -6084,7 +6154,7 @@
       <c r="A157" s="1">
         <v>169</v>
       </c>
-      <c r="B157" s="65"/>
+      <c r="B157" s="68"/>
       <c r="C157" s="2"/>
       <c r="D157" s="1"/>
       <c r="E157" s="2"/>
@@ -6096,7 +6166,7 @@
       <c r="A158" s="1">
         <v>170</v>
       </c>
-      <c r="B158" s="66"/>
+      <c r="B158" s="69"/>
       <c r="C158" s="2"/>
       <c r="D158" s="1"/>
       <c r="E158" s="2"/>
@@ -6108,7 +6178,7 @@
       <c r="A159" s="1">
         <v>171</v>
       </c>
-      <c r="B159" s="66"/>
+      <c r="B159" s="69"/>
       <c r="C159" s="2"/>
       <c r="D159" s="1"/>
       <c r="E159" s="2"/>
@@ -6120,7 +6190,7 @@
       <c r="A160" s="1">
         <v>172</v>
       </c>
-      <c r="B160" s="66"/>
+      <c r="B160" s="69"/>
       <c r="C160" s="2"/>
       <c r="D160" s="1"/>
       <c r="E160" s="2"/>
@@ -6132,7 +6202,7 @@
       <c r="A161" s="1">
         <v>173</v>
       </c>
-      <c r="B161" s="66"/>
+      <c r="B161" s="69"/>
       <c r="C161" s="2"/>
       <c r="D161" s="1"/>
       <c r="E161" s="2"/>
@@ -6144,7 +6214,7 @@
       <c r="A162" s="1">
         <v>174</v>
       </c>
-      <c r="B162" s="66"/>
+      <c r="B162" s="69"/>
       <c r="C162" s="2"/>
       <c r="D162" s="1"/>
       <c r="E162" s="2"/>
@@ -6156,7 +6226,7 @@
       <c r="A163" s="1">
         <v>175</v>
       </c>
-      <c r="B163" s="66"/>
+      <c r="B163" s="69"/>
       <c r="C163" s="2"/>
       <c r="D163" s="1"/>
       <c r="E163" s="2"/>
@@ -6168,7 +6238,7 @@
       <c r="A164" s="1">
         <v>176</v>
       </c>
-      <c r="B164" s="66"/>
+      <c r="B164" s="69"/>
       <c r="C164" s="2"/>
       <c r="D164" s="1"/>
       <c r="E164" s="2"/>
@@ -6180,7 +6250,7 @@
       <c r="A165" s="1">
         <v>177</v>
       </c>
-      <c r="B165" s="66"/>
+      <c r="B165" s="69"/>
       <c r="C165" s="2"/>
       <c r="D165" s="1"/>
       <c r="E165" s="2"/>
@@ -6192,7 +6262,7 @@
       <c r="A166" s="1">
         <v>178</v>
       </c>
-      <c r="B166" s="66"/>
+      <c r="B166" s="69"/>
       <c r="C166" s="2"/>
       <c r="D166" s="1"/>
       <c r="E166" s="2"/>
@@ -6204,7 +6274,7 @@
       <c r="A167" s="1">
         <v>179</v>
       </c>
-      <c r="B167" s="66"/>
+      <c r="B167" s="69"/>
       <c r="C167" s="2"/>
       <c r="D167" s="1"/>
       <c r="E167" s="2"/>
@@ -6216,7 +6286,7 @@
       <c r="A168" s="1">
         <v>180</v>
       </c>
-      <c r="B168" s="66"/>
+      <c r="B168" s="69"/>
       <c r="C168" s="2"/>
       <c r="D168" s="1"/>
       <c r="E168" s="2"/>
@@ -6228,7 +6298,7 @@
       <c r="A169" s="1">
         <v>181</v>
       </c>
-      <c r="B169" s="66"/>
+      <c r="B169" s="69"/>
       <c r="C169" s="2"/>
       <c r="D169" s="1"/>
       <c r="E169" s="2"/>
@@ -6240,7 +6310,7 @@
       <c r="A170" s="1">
         <v>182</v>
       </c>
-      <c r="B170" s="66"/>
+      <c r="B170" s="69"/>
       <c r="C170" s="2"/>
       <c r="D170" s="1"/>
       <c r="E170" s="2"/>
@@ -6252,7 +6322,7 @@
       <c r="A171" s="1">
         <v>183</v>
       </c>
-      <c r="B171" s="66"/>
+      <c r="B171" s="69"/>
       <c r="C171" s="2"/>
       <c r="D171" s="1"/>
       <c r="E171" s="2"/>
@@ -6264,7 +6334,7 @@
       <c r="A172" s="1">
         <v>184</v>
       </c>
-      <c r="B172" s="66"/>
+      <c r="B172" s="69"/>
       <c r="C172" s="2"/>
       <c r="D172" s="1"/>
       <c r="E172" s="2"/>
@@ -6276,7 +6346,7 @@
       <c r="A173" s="1">
         <v>185</v>
       </c>
-      <c r="B173" s="66"/>
+      <c r="B173" s="69"/>
       <c r="C173" s="2"/>
       <c r="D173" s="1"/>
       <c r="E173" s="2"/>
@@ -6288,7 +6358,7 @@
       <c r="A174" s="1">
         <v>186</v>
       </c>
-      <c r="B174" s="66"/>
+      <c r="B174" s="69"/>
       <c r="C174" s="2"/>
       <c r="D174" s="1"/>
       <c r="E174" s="2"/>
@@ -6300,7 +6370,7 @@
       <c r="A175" s="1">
         <v>187</v>
       </c>
-      <c r="B175" s="66"/>
+      <c r="B175" s="69"/>
       <c r="C175" s="2"/>
       <c r="D175" s="1"/>
       <c r="E175" s="2"/>
@@ -6312,7 +6382,7 @@
       <c r="A176" s="1">
         <v>188</v>
       </c>
-      <c r="B176" s="66"/>
+      <c r="B176" s="69"/>
       <c r="C176" s="2"/>
       <c r="D176" s="1"/>
       <c r="E176" s="2"/>
@@ -6324,7 +6394,7 @@
       <c r="A177" s="1">
         <v>189</v>
       </c>
-      <c r="B177" s="66"/>
+      <c r="B177" s="69"/>
       <c r="C177" s="2"/>
       <c r="D177" s="1"/>
       <c r="E177" s="2"/>
@@ -6336,7 +6406,7 @@
       <c r="A178" s="1">
         <v>190</v>
       </c>
-      <c r="B178" s="66"/>
+      <c r="B178" s="69"/>
       <c r="C178" s="2"/>
       <c r="D178" s="1"/>
       <c r="E178" s="2"/>
@@ -6348,7 +6418,7 @@
       <c r="A179" s="1">
         <v>191</v>
       </c>
-      <c r="B179" s="66"/>
+      <c r="B179" s="69"/>
       <c r="C179" s="2"/>
       <c r="D179" s="1"/>
       <c r="E179" s="2"/>
@@ -6360,7 +6430,7 @@
       <c r="A180" s="1">
         <v>192</v>
       </c>
-      <c r="B180" s="66"/>
+      <c r="B180" s="69"/>
       <c r="C180" s="2"/>
       <c r="D180" s="1"/>
       <c r="E180" s="2"/>
@@ -6372,7 +6442,7 @@
       <c r="A181" s="1">
         <v>193</v>
       </c>
-      <c r="B181" s="66"/>
+      <c r="B181" s="69"/>
       <c r="C181" s="2"/>
       <c r="D181" s="1"/>
       <c r="E181" s="2"/>
@@ -6384,7 +6454,7 @@
       <c r="A182" s="1">
         <v>194</v>
       </c>
-      <c r="B182" s="66"/>
+      <c r="B182" s="69"/>
       <c r="C182" s="2"/>
       <c r="D182" s="1"/>
       <c r="E182" s="2"/>
@@ -6396,7 +6466,7 @@
       <c r="A183" s="1">
         <v>195</v>
       </c>
-      <c r="B183" s="66"/>
+      <c r="B183" s="69"/>
       <c r="C183" s="2"/>
       <c r="D183" s="1"/>
       <c r="E183" s="2"/>
@@ -6408,7 +6478,7 @@
       <c r="A184" s="1">
         <v>196</v>
       </c>
-      <c r="B184" s="66"/>
+      <c r="B184" s="69"/>
       <c r="C184" s="2"/>
       <c r="D184" s="1"/>
       <c r="E184" s="2"/>
@@ -6420,7 +6490,7 @@
       <c r="A185" s="1">
         <v>197</v>
       </c>
-      <c r="B185" s="66"/>
+      <c r="B185" s="69"/>
       <c r="C185" s="2"/>
       <c r="D185" s="1"/>
       <c r="E185" s="2"/>
@@ -6432,7 +6502,7 @@
       <c r="A186" s="1">
         <v>198</v>
       </c>
-      <c r="B186" s="66"/>
+      <c r="B186" s="69"/>
       <c r="C186" s="2"/>
       <c r="D186" s="1"/>
       <c r="E186" s="2"/>
@@ -6444,7 +6514,7 @@
       <c r="A187" s="1">
         <v>199</v>
       </c>
-      <c r="B187" s="66"/>
+      <c r="B187" s="69"/>
       <c r="C187" s="2"/>
       <c r="D187" s="1"/>
       <c r="E187" s="2"/>
@@ -6456,7 +6526,7 @@
       <c r="A188" s="1">
         <v>200</v>
       </c>
-      <c r="B188" s="66"/>
+      <c r="B188" s="69"/>
       <c r="C188" s="2"/>
       <c r="D188" s="1"/>
       <c r="E188" s="2"/>
@@ -6468,7 +6538,7 @@
       <c r="A189" s="1">
         <v>201</v>
       </c>
-      <c r="B189" s="66"/>
+      <c r="B189" s="69"/>
       <c r="C189" s="2"/>
       <c r="D189" s="1"/>
       <c r="E189" s="2"/>
@@ -6480,7 +6550,7 @@
       <c r="A190" s="1">
         <v>202</v>
       </c>
-      <c r="B190" s="66"/>
+      <c r="B190" s="69"/>
       <c r="C190" s="2"/>
       <c r="D190" s="1"/>
       <c r="E190" s="2"/>
@@ -6492,7 +6562,7 @@
       <c r="A191" s="1">
         <v>203</v>
       </c>
-      <c r="B191" s="66"/>
+      <c r="B191" s="69"/>
       <c r="C191" s="2"/>
       <c r="D191" s="1"/>
       <c r="E191" s="2"/>
@@ -6504,7 +6574,7 @@
       <c r="A192" s="1">
         <v>204</v>
       </c>
-      <c r="B192" s="66"/>
+      <c r="B192" s="69"/>
       <c r="C192" s="2"/>
       <c r="D192" s="1"/>
       <c r="E192" s="2"/>
@@ -6516,7 +6586,7 @@
       <c r="A193" s="1">
         <v>205</v>
       </c>
-      <c r="B193" s="66"/>
+      <c r="B193" s="69"/>
       <c r="C193" s="2"/>
       <c r="D193" s="1"/>
       <c r="E193" s="2"/>
@@ -6528,7 +6598,7 @@
       <c r="A194" s="1">
         <v>206</v>
       </c>
-      <c r="B194" s="66"/>
+      <c r="B194" s="69"/>
       <c r="C194" s="2"/>
       <c r="D194" s="1"/>
       <c r="E194" s="2"/>
@@ -6540,7 +6610,7 @@
       <c r="A195" s="1">
         <v>207</v>
       </c>
-      <c r="B195" s="66"/>
+      <c r="B195" s="69"/>
       <c r="C195" s="2"/>
       <c r="D195" s="1"/>
       <c r="E195" s="2"/>
@@ -6552,7 +6622,7 @@
       <c r="A196" s="1">
         <v>208</v>
       </c>
-      <c r="B196" s="66"/>
+      <c r="B196" s="69"/>
       <c r="C196" s="2"/>
       <c r="D196" s="1"/>
       <c r="E196" s="2"/>
@@ -6564,7 +6634,7 @@
       <c r="A197" s="1">
         <v>209</v>
       </c>
-      <c r="B197" s="66"/>
+      <c r="B197" s="69"/>
       <c r="C197" s="2"/>
       <c r="D197" s="1"/>
       <c r="E197" s="2"/>
@@ -6576,7 +6646,7 @@
       <c r="A198" s="1">
         <v>210</v>
       </c>
-      <c r="B198" s="66"/>
+      <c r="B198" s="69"/>
       <c r="C198" s="2"/>
       <c r="D198" s="1"/>
       <c r="E198" s="2"/>
@@ -6588,7 +6658,7 @@
       <c r="A199" s="1">
         <v>211</v>
       </c>
-      <c r="B199" s="66"/>
+      <c r="B199" s="69"/>
       <c r="C199" s="2"/>
       <c r="D199" s="1"/>
       <c r="E199" s="2"/>
@@ -6600,7 +6670,7 @@
       <c r="A200" s="1">
         <v>212</v>
       </c>
-      <c r="B200" s="66"/>
+      <c r="B200" s="69"/>
       <c r="C200" s="2"/>
       <c r="D200" s="1"/>
       <c r="E200" s="2"/>
@@ -6612,7 +6682,7 @@
       <c r="A201" s="1">
         <v>213</v>
       </c>
-      <c r="B201" s="66"/>
+      <c r="B201" s="69"/>
       <c r="C201" s="2"/>
       <c r="D201" s="1"/>
       <c r="E201" s="2"/>
@@ -6624,7 +6694,7 @@
       <c r="A202" s="1">
         <v>214</v>
       </c>
-      <c r="B202" s="66"/>
+      <c r="B202" s="69"/>
       <c r="C202" s="2"/>
       <c r="D202" s="1"/>
       <c r="E202" s="2"/>
@@ -6636,7 +6706,7 @@
       <c r="A203" s="1">
         <v>215</v>
       </c>
-      <c r="B203" s="66"/>
+      <c r="B203" s="69"/>
       <c r="C203" s="2"/>
       <c r="D203" s="1"/>
       <c r="E203" s="2"/>
@@ -6648,7 +6718,7 @@
       <c r="A204" s="1">
         <v>216</v>
       </c>
-      <c r="B204" s="66"/>
+      <c r="B204" s="69"/>
       <c r="C204" s="2"/>
       <c r="D204" s="1"/>
       <c r="E204" s="2"/>
@@ -6660,7 +6730,7 @@
       <c r="A205" s="1">
         <v>217</v>
       </c>
-      <c r="B205" s="66"/>
+      <c r="B205" s="69"/>
       <c r="C205" s="2"/>
       <c r="D205" s="1"/>
       <c r="E205" s="2"/>
@@ -6672,7 +6742,7 @@
       <c r="A206" s="1">
         <v>218</v>
       </c>
-      <c r="B206" s="66"/>
+      <c r="B206" s="69"/>
       <c r="C206" s="2"/>
       <c r="D206" s="1"/>
       <c r="E206" s="2"/>
@@ -6684,7 +6754,7 @@
       <c r="A207" s="1">
         <v>219</v>
       </c>
-      <c r="B207" s="66"/>
+      <c r="B207" s="69"/>
       <c r="C207" s="2"/>
       <c r="D207" s="1"/>
       <c r="E207" s="2"/>
@@ -6696,7 +6766,7 @@
       <c r="A208" s="1">
         <v>220</v>
       </c>
-      <c r="B208" s="66"/>
+      <c r="B208" s="69"/>
       <c r="C208" s="2"/>
       <c r="D208" s="1"/>
       <c r="E208" s="2"/>
@@ -6708,7 +6778,7 @@
       <c r="A209" s="1">
         <v>221</v>
       </c>
-      <c r="B209" s="66"/>
+      <c r="B209" s="69"/>
       <c r="C209" s="2"/>
       <c r="D209" s="1"/>
       <c r="E209" s="2"/>
@@ -6720,7 +6790,7 @@
       <c r="A210" s="1">
         <v>222</v>
       </c>
-      <c r="B210" s="66"/>
+      <c r="B210" s="69"/>
       <c r="C210" s="2"/>
       <c r="D210" s="1"/>
       <c r="E210" s="2"/>
@@ -6732,7 +6802,7 @@
       <c r="A211" s="1">
         <v>223</v>
       </c>
-      <c r="B211" s="66"/>
+      <c r="B211" s="69"/>
       <c r="C211" s="2"/>
       <c r="D211" s="1"/>
       <c r="E211" s="2"/>
@@ -6744,7 +6814,7 @@
       <c r="A212" s="1">
         <v>224</v>
       </c>
-      <c r="B212" s="66"/>
+      <c r="B212" s="69"/>
       <c r="C212" s="2"/>
       <c r="D212" s="1"/>
       <c r="E212" s="2"/>
@@ -6756,7 +6826,7 @@
       <c r="A213" s="1">
         <v>225</v>
       </c>
-      <c r="B213" s="66"/>
+      <c r="B213" s="69"/>
       <c r="C213" s="2"/>
       <c r="D213" s="1"/>
       <c r="E213" s="2"/>
@@ -6768,7 +6838,7 @@
       <c r="A214" s="1">
         <v>226</v>
       </c>
-      <c r="B214" s="66"/>
+      <c r="B214" s="69"/>
       <c r="C214" s="2"/>
       <c r="D214" s="1"/>
       <c r="E214" s="2"/>
@@ -6780,7 +6850,7 @@
       <c r="A215" s="1">
         <v>227</v>
       </c>
-      <c r="B215" s="66"/>
+      <c r="B215" s="69"/>
       <c r="C215" s="2"/>
       <c r="D215" s="1"/>
       <c r="E215" s="2"/>
@@ -6792,7 +6862,7 @@
       <c r="A216" s="1">
         <v>228</v>
       </c>
-      <c r="B216" s="66"/>
+      <c r="B216" s="69"/>
       <c r="C216" s="2"/>
       <c r="D216" s="1"/>
       <c r="E216" s="2"/>
@@ -6804,7 +6874,7 @@
       <c r="A217" s="1">
         <v>229</v>
       </c>
-      <c r="B217" s="66"/>
+      <c r="B217" s="69"/>
       <c r="C217" s="2"/>
       <c r="D217" s="1"/>
       <c r="E217" s="2"/>
@@ -6816,7 +6886,7 @@
       <c r="A218" s="1">
         <v>230</v>
       </c>
-      <c r="B218" s="66"/>
+      <c r="B218" s="69"/>
       <c r="C218" s="2"/>
       <c r="D218" s="1"/>
       <c r="E218" s="2"/>
@@ -6828,7 +6898,7 @@
       <c r="A219" s="1">
         <v>231</v>
       </c>
-      <c r="B219" s="66"/>
+      <c r="B219" s="69"/>
       <c r="C219" s="2"/>
       <c r="D219" s="1"/>
       <c r="E219" s="2"/>
@@ -6840,7 +6910,7 @@
       <c r="A220" s="1">
         <v>232</v>
       </c>
-      <c r="B220" s="66"/>
+      <c r="B220" s="69"/>
       <c r="C220" s="2"/>
       <c r="D220" s="1"/>
       <c r="E220" s="2"/>
@@ -6852,7 +6922,7 @@
       <c r="A221" s="1">
         <v>233</v>
       </c>
-      <c r="B221" s="66"/>
+      <c r="B221" s="69"/>
       <c r="C221" s="2"/>
       <c r="D221" s="1"/>
       <c r="E221" s="2"/>
@@ -6864,7 +6934,7 @@
       <c r="A222" s="1">
         <v>234</v>
       </c>
-      <c r="B222" s="66"/>
+      <c r="B222" s="69"/>
       <c r="C222" s="2"/>
       <c r="D222" s="1"/>
       <c r="E222" s="2"/>
@@ -6876,7 +6946,7 @@
       <c r="A223" s="1">
         <v>235</v>
       </c>
-      <c r="B223" s="66"/>
+      <c r="B223" s="69"/>
       <c r="C223" s="2"/>
       <c r="D223" s="1"/>
       <c r="E223" s="2"/>
@@ -6888,7 +6958,7 @@
       <c r="A224" s="1">
         <v>236</v>
       </c>
-      <c r="B224" s="66"/>
+      <c r="B224" s="69"/>
       <c r="C224" s="2"/>
       <c r="D224" s="1"/>
       <c r="E224" s="2"/>
@@ -6900,7 +6970,7 @@
       <c r="A225" s="1">
         <v>237</v>
       </c>
-      <c r="B225" s="66"/>
+      <c r="B225" s="69"/>
       <c r="C225" s="2"/>
       <c r="D225" s="1"/>
       <c r="E225" s="2"/>
@@ -6912,7 +6982,7 @@
       <c r="A226" s="1">
         <v>238</v>
       </c>
-      <c r="B226" s="66"/>
+      <c r="B226" s="69"/>
       <c r="C226" s="2"/>
       <c r="D226" s="1"/>
       <c r="E226" s="2"/>
@@ -6924,7 +6994,7 @@
       <c r="A227" s="1">
         <v>239</v>
       </c>
-      <c r="B227" s="66"/>
+      <c r="B227" s="69"/>
       <c r="C227" s="2"/>
       <c r="D227" s="1"/>
       <c r="E227" s="2"/>
@@ -6936,7 +7006,7 @@
       <c r="A228" s="1">
         <v>240</v>
       </c>
-      <c r="B228" s="66"/>
+      <c r="B228" s="69"/>
       <c r="C228" s="2"/>
       <c r="D228" s="1"/>
       <c r="E228" s="2"/>
@@ -6948,7 +7018,7 @@
       <c r="A229" s="1">
         <v>241</v>
       </c>
-      <c r="B229" s="66"/>
+      <c r="B229" s="69"/>
       <c r="C229" s="17"/>
       <c r="D229" s="1"/>
       <c r="E229" s="2"/>
@@ -6960,7 +7030,7 @@
       <c r="A230" s="1">
         <v>242</v>
       </c>
-      <c r="B230" s="66"/>
+      <c r="B230" s="69"/>
       <c r="C230" s="2"/>
       <c r="D230" s="1"/>
       <c r="E230" s="2"/>
@@ -6972,7 +7042,7 @@
       <c r="A231" s="1">
         <v>243</v>
       </c>
-      <c r="B231" s="66"/>
+      <c r="B231" s="69"/>
       <c r="C231" s="2"/>
       <c r="D231" s="1"/>
       <c r="E231" s="2"/>
@@ -6984,7 +7054,7 @@
       <c r="A232" s="1">
         <v>244</v>
       </c>
-      <c r="B232" s="66"/>
+      <c r="B232" s="69"/>
       <c r="C232" s="2"/>
       <c r="D232" s="1"/>
       <c r="E232" s="2"/>
@@ -6996,7 +7066,7 @@
       <c r="A233" s="1">
         <v>245</v>
       </c>
-      <c r="B233" s="66"/>
+      <c r="B233" s="69"/>
       <c r="C233" s="2"/>
       <c r="D233" s="1"/>
       <c r="E233" s="2"/>
@@ -7008,7 +7078,7 @@
       <c r="A234" s="1">
         <v>246</v>
       </c>
-      <c r="B234" s="66"/>
+      <c r="B234" s="69"/>
       <c r="C234" s="2"/>
       <c r="D234" s="1"/>
       <c r="E234" s="2"/>
@@ -7020,7 +7090,7 @@
       <c r="A235" s="1">
         <v>247</v>
       </c>
-      <c r="B235" s="66"/>
+      <c r="B235" s="69"/>
       <c r="C235" s="2"/>
       <c r="D235" s="1"/>
       <c r="E235" s="2"/>
@@ -7032,7 +7102,7 @@
       <c r="A236" s="1">
         <v>248</v>
       </c>
-      <c r="B236" s="66"/>
+      <c r="B236" s="69"/>
       <c r="C236" s="2"/>
       <c r="D236" s="1"/>
       <c r="E236" s="2"/>
@@ -7044,7 +7114,7 @@
       <c r="A237" s="1">
         <v>249</v>
       </c>
-      <c r="B237" s="66"/>
+      <c r="B237" s="69"/>
       <c r="C237" s="2"/>
       <c r="D237" s="1"/>
       <c r="E237" s="2"/>
@@ -7056,7 +7126,7 @@
       <c r="A238" s="1">
         <v>250</v>
       </c>
-      <c r="B238" s="66"/>
+      <c r="B238" s="69"/>
       <c r="C238" s="2"/>
       <c r="D238" s="1"/>
       <c r="E238" s="2"/>
@@ -7068,7 +7138,7 @@
       <c r="A239" s="1">
         <v>251</v>
       </c>
-      <c r="B239" s="66"/>
+      <c r="B239" s="69"/>
       <c r="C239" s="2"/>
       <c r="D239" s="1"/>
       <c r="E239" s="2"/>
@@ -7080,7 +7150,7 @@
       <c r="A240" s="1">
         <v>252</v>
       </c>
-      <c r="B240" s="66"/>
+      <c r="B240" s="69"/>
       <c r="C240" s="2"/>
       <c r="D240" s="1"/>
       <c r="E240" s="2"/>
@@ -7092,7 +7162,7 @@
       <c r="A241" s="1">
         <v>253</v>
       </c>
-      <c r="B241" s="66"/>
+      <c r="B241" s="69"/>
       <c r="C241" s="2"/>
       <c r="D241" s="1"/>
       <c r="E241" s="2"/>
@@ -7104,7 +7174,7 @@
       <c r="A242" s="1">
         <v>254</v>
       </c>
-      <c r="B242" s="66"/>
+      <c r="B242" s="69"/>
       <c r="C242" s="2"/>
       <c r="D242" s="1"/>
       <c r="E242" s="2"/>
@@ -7116,7 +7186,7 @@
       <c r="A243" s="1">
         <v>255</v>
       </c>
-      <c r="B243" s="66"/>
+      <c r="B243" s="69"/>
       <c r="C243" s="2"/>
       <c r="D243" s="1"/>
       <c r="E243" s="2"/>
@@ -7128,7 +7198,7 @@
       <c r="A244" s="1">
         <v>256</v>
       </c>
-      <c r="B244" s="66"/>
+      <c r="B244" s="69"/>
       <c r="C244" s="2"/>
       <c r="D244" s="1"/>
       <c r="E244" s="2"/>
@@ -7140,7 +7210,7 @@
       <c r="A245" s="1">
         <v>257</v>
       </c>
-      <c r="B245" s="66"/>
+      <c r="B245" s="69"/>
       <c r="C245" s="2"/>
       <c r="D245" s="1"/>
       <c r="E245" s="2"/>
@@ -7152,7 +7222,7 @@
       <c r="A246" s="1">
         <v>258</v>
       </c>
-      <c r="B246" s="66"/>
+      <c r="B246" s="69"/>
       <c r="C246" s="2"/>
       <c r="D246" s="1"/>
       <c r="E246" s="2"/>
@@ -7164,7 +7234,7 @@
       <c r="A247" s="1">
         <v>259</v>
       </c>
-      <c r="B247" s="66"/>
+      <c r="B247" s="69"/>
       <c r="C247" s="2"/>
       <c r="D247" s="1"/>
       <c r="E247" s="2"/>
@@ -7176,7 +7246,7 @@
       <c r="A248" s="1">
         <v>260</v>
       </c>
-      <c r="B248" s="66"/>
+      <c r="B248" s="69"/>
       <c r="C248" s="2"/>
       <c r="D248" s="1"/>
       <c r="E248" s="2"/>
@@ -7188,7 +7258,7 @@
       <c r="A249" s="1">
         <v>261</v>
       </c>
-      <c r="B249" s="66"/>
+      <c r="B249" s="69"/>
       <c r="C249" s="2"/>
       <c r="D249" s="1"/>
       <c r="E249" s="2"/>
@@ -7200,7 +7270,7 @@
       <c r="A250" s="1">
         <v>262</v>
       </c>
-      <c r="B250" s="66"/>
+      <c r="B250" s="69"/>
       <c r="C250" s="2"/>
       <c r="D250" s="1"/>
       <c r="E250" s="2"/>
